--- a/medicine/Handicap/Black_Sun_(film)/Black_Sun_(film).xlsx
+++ b/medicine/Handicap/Black_Sun_(film)/Black_Sun_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Black Sun (de l'anglais signifiant littéralement « Soleil noir ») est un film documentaire britannique réalisé par Gary Tarn — dont c'est le premier film — sorti en 2005.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit en fait d'une longue narration en voix off, écrite et dite par l'artiste français basé à New York Hugues de Montalembert, dans laquelle celui-ci raconte comment il a perdu la vue à la suite d'une agression subie en 1978, et comment il a surmonté cette épreuve et s'est adapté à cette nouvelle situation. Les images et la musique qui accompagnent cette narration et constituent le travail du réalisateur n'ont pas de réelle cohérence et se veulent davantage un « poème sensoriel ».
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Black Sun
 Réalisation :	Gary Tarn
